--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_16ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3527,28 +3527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.280091562271</v>
+        <v>170.3616791936673</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.1502364767617</v>
+        <v>233.0963652995155</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.5295823288602</v>
+        <v>210.8499753482004</v>
       </c>
       <c r="AD2" t="n">
-        <v>127280.091562271</v>
+        <v>170361.6791936673</v>
       </c>
       <c r="AE2" t="n">
-        <v>174150.2364767617</v>
+        <v>233096.3652995155</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037057024069888e-06</v>
+        <v>4.378417035554536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157529.5823288602</v>
+        <v>210849.9753482004</v>
       </c>
     </row>
     <row r="3">
@@ -3633,28 +3633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.6487626253187</v>
+        <v>136.0969824612316</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.0803214508145</v>
+        <v>186.2138955784877</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.8066907720433</v>
+        <v>168.4419027373731</v>
       </c>
       <c r="AD3" t="n">
-        <v>101648.7626253187</v>
+        <v>136096.9824612316</v>
       </c>
       <c r="AE3" t="n">
-        <v>139080.3214508145</v>
+        <v>186213.8955784877</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.632755659968313e-06</v>
+        <v>5.237214560527922e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>125806.6907720433</v>
+        <v>168441.9027373731</v>
       </c>
     </row>
     <row r="4">
@@ -3739,28 +3739,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.89028720693217</v>
+        <v>134.3385070428451</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.6742978049191</v>
+        <v>183.8078719325922</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6302946460359</v>
+        <v>166.2655066113657</v>
       </c>
       <c r="AD4" t="n">
-        <v>99890.28720693217</v>
+        <v>134338.5070428451</v>
       </c>
       <c r="AE4" t="n">
-        <v>136674.2978049191</v>
+        <v>183807.8719325922</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.797243269669194e-06</v>
+        <v>5.474350494013579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.0078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>123630.2946460359</v>
+        <v>166265.5066113657</v>
       </c>
     </row>
     <row r="5">
@@ -3845,28 +3845,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.82322781616227</v>
+        <v>124.3566989980958</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.9001030191592</v>
+        <v>170.1503217994816</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1706896784208</v>
+        <v>153.9114138944628</v>
       </c>
       <c r="AD5" t="n">
-        <v>89823.22781616227</v>
+        <v>124356.6989980958</v>
       </c>
       <c r="AE5" t="n">
-        <v>122900.1030191592</v>
+        <v>170150.3217994816</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.920556458550955e-06</v>
+        <v>5.652126730228244e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.747395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>111170.6896784208</v>
+        <v>153911.4138944628</v>
       </c>
     </row>
     <row r="6">
@@ -3951,28 +3951,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.98401241254471</v>
+        <v>123.5174835944782</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.7518514803597</v>
+        <v>169.002070260682</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.1320256549028</v>
+        <v>152.8727498709448</v>
       </c>
       <c r="AD6" t="n">
-        <v>88984.01241254472</v>
+        <v>123517.4835944782</v>
       </c>
       <c r="AE6" t="n">
-        <v>121751.8514803597</v>
+        <v>169002.0702606821</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.000641173874315e-06</v>
+        <v>5.767582014432768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>110132.0256549028</v>
+        <v>152872.7498709448</v>
       </c>
     </row>
     <row r="7">
@@ -4057,28 +4057,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.39290692072969</v>
+        <v>122.9263781026632</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.9430748687249</v>
+        <v>168.1932936490473</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.4004375479571</v>
+        <v>152.1411617639991</v>
       </c>
       <c r="AD7" t="n">
-        <v>88392.90692072969</v>
+        <v>122926.3781026632</v>
       </c>
       <c r="AE7" t="n">
-        <v>120943.0748687249</v>
+        <v>168193.2936490473</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.041815594693437e-06</v>
+        <v>5.826941711703762e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>109400.4375479571</v>
+        <v>152141.1617639991</v>
       </c>
     </row>
     <row r="8">
@@ -4163,28 +4163,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.79768685466323</v>
+        <v>122.1605658360045</v>
       </c>
       <c r="AB8" t="n">
-        <v>120.1286685150772</v>
+        <v>167.1454755205527</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.6637569936747</v>
+        <v>151.1933459270657</v>
       </c>
       <c r="AD8" t="n">
-        <v>87797.68685466323</v>
+        <v>122160.5658360045</v>
       </c>
       <c r="AE8" t="n">
-        <v>120128.6685150772</v>
+        <v>167145.4755205527</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.084250456966206e-06</v>
+        <v>5.888118542564687e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>108663.7569936747</v>
+        <v>151193.3459270657</v>
       </c>
     </row>
     <row r="9">
@@ -4269,28 +4269,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.41338106712691</v>
+        <v>121.7762600484682</v>
       </c>
       <c r="AB9" t="n">
-        <v>119.6028443821955</v>
+        <v>166.619651387671</v>
       </c>
       <c r="AC9" t="n">
-        <v>108.1881167780363</v>
+        <v>150.7177057114273</v>
       </c>
       <c r="AD9" t="n">
-        <v>87413.3810671269</v>
+        <v>121776.2600484682</v>
       </c>
       <c r="AE9" t="n">
-        <v>119602.8443821955</v>
+        <v>166619.651387671</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.088615319037167e-06</v>
+        <v>5.894411208885364e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>108188.1167780363</v>
+        <v>150717.7057114273</v>
       </c>
     </row>
     <row r="10">
@@ -4375,28 +4375,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>87.03583079393397</v>
+        <v>121.3987097752753</v>
       </c>
       <c r="AB10" t="n">
-        <v>119.0862634420706</v>
+        <v>166.1030704475462</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.7208375978109</v>
+        <v>150.2504265312019</v>
       </c>
       <c r="AD10" t="n">
-        <v>87035.83079393397</v>
+        <v>121398.7097752753</v>
       </c>
       <c r="AE10" t="n">
-        <v>119086.2634420706</v>
+        <v>166103.0704475462</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.125564926835734e-06</v>
+        <v>5.947680143567895e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>107720.8375978109</v>
+        <v>150250.4265312019</v>
       </c>
     </row>
     <row r="11">
@@ -4481,28 +4481,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>86.53610107172729</v>
+        <v>120.8989800530686</v>
       </c>
       <c r="AB11" t="n">
-        <v>118.4025111896284</v>
+        <v>165.419318195104</v>
       </c>
       <c r="AC11" t="n">
-        <v>107.1023417006892</v>
+        <v>149.6319306340802</v>
       </c>
       <c r="AD11" t="n">
-        <v>86536.10107172729</v>
+        <v>120898.9800530686</v>
       </c>
       <c r="AE11" t="n">
-        <v>118402.5111896284</v>
+        <v>165419.318195104</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.132870818965203e-06</v>
+        <v>5.958212788265072e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>107102.3417006892</v>
+        <v>149631.9306340802</v>
       </c>
     </row>
     <row r="12">
@@ -4587,28 +4587,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>86.19426627707432</v>
+        <v>120.5571452584156</v>
       </c>
       <c r="AB12" t="n">
-        <v>117.9347977428977</v>
+        <v>164.9516047483732</v>
       </c>
       <c r="AC12" t="n">
-        <v>106.6792661688744</v>
+        <v>149.2088551022653</v>
       </c>
       <c r="AD12" t="n">
-        <v>86194.26627707432</v>
+        <v>120557.1452584156</v>
       </c>
       <c r="AE12" t="n">
-        <v>117934.7977428977</v>
+        <v>164951.6047483732</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.13305755103241e-06</v>
+        <v>5.958481993241358e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>106679.2661688744</v>
+        <v>149208.8551022653</v>
       </c>
     </row>
   </sheetData>
@@ -4884,28 +4884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.4501226969982</v>
+        <v>143.119906425561</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.7544864725971</v>
+        <v>195.8229699760169</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.4621284654351</v>
+        <v>177.1339005608258</v>
       </c>
       <c r="AD2" t="n">
-        <v>109450.1226969983</v>
+        <v>143119.906425561</v>
       </c>
       <c r="AE2" t="n">
-        <v>149754.4864725971</v>
+        <v>195822.9699760169</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.491747701387884e-06</v>
+        <v>5.111787278939672e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>135462.1284654351</v>
+        <v>177133.9005608258</v>
       </c>
     </row>
     <row r="3">
@@ -4990,28 +4990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.19643045992011</v>
+        <v>120.8661246799318</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.30600299023</v>
+        <v>165.3743640241014</v>
       </c>
       <c r="AC3" t="n">
-        <v>107.9196055119004</v>
+        <v>149.5912668260646</v>
       </c>
       <c r="AD3" t="n">
-        <v>87196.43045992011</v>
+        <v>120866.1246799318</v>
       </c>
       <c r="AE3" t="n">
-        <v>119306.00299023</v>
+        <v>165374.3640241014</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.011041553456235e-06</v>
+        <v>5.872013943076793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.838541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>107919.6055119004</v>
+        <v>149591.2668260646</v>
       </c>
     </row>
     <row r="4">
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.44255538223773</v>
+        <v>118.9416574016572</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.9062737334386</v>
+        <v>162.7412229924632</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.7489030473352</v>
+        <v>147.2094290788484</v>
       </c>
       <c r="AD4" t="n">
-        <v>85442.55538223773</v>
+        <v>118941.6574016572</v>
       </c>
       <c r="AE4" t="n">
-        <v>116906.2737334386</v>
+        <v>162741.2229924632</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.206289860339182e-06</v>
+        <v>6.157850119316574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.473958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>105748.9030473352</v>
+        <v>147209.4290788484</v>
       </c>
     </row>
     <row r="5">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.64132982124032</v>
+        <v>118.1404318406598</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.8100015733055</v>
+        <v>161.64495083233</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.7572575635372</v>
+        <v>146.2177835950503</v>
       </c>
       <c r="AD5" t="n">
-        <v>84641.32982124032</v>
+        <v>118140.4318406598</v>
       </c>
       <c r="AE5" t="n">
-        <v>115810.0015733055</v>
+        <v>161644.95083233</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.276869974242083e-06</v>
+        <v>6.261176750920444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>104757.2575635372</v>
+        <v>146217.7835950503</v>
       </c>
     </row>
     <row r="6">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.82185151392177</v>
+        <v>109.0742116874816</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.6887552004014</v>
+        <v>149.2401484453534</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.7430213707836</v>
+        <v>134.9968781376333</v>
       </c>
       <c r="AD6" t="n">
-        <v>83821.85151392178</v>
+        <v>109074.2116874816</v>
       </c>
       <c r="AE6" t="n">
-        <v>114688.7552004014</v>
+        <v>149240.1484453533</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.363604072476507e-06</v>
+        <v>6.388152207889687e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>103743.0213707836</v>
+        <v>134996.8781376333</v>
       </c>
     </row>
     <row r="7">
@@ -5414,28 +5414,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>83.34340606540943</v>
+        <v>108.5957662389692</v>
       </c>
       <c r="AB7" t="n">
-        <v>114.0341250302236</v>
+        <v>148.5855182751756</v>
       </c>
       <c r="AC7" t="n">
-        <v>103.1508681852682</v>
+        <v>134.4047249521179</v>
       </c>
       <c r="AD7" t="n">
-        <v>83343.40606540942</v>
+        <v>108595.7662389692</v>
       </c>
       <c r="AE7" t="n">
-        <v>114034.1250302236</v>
+        <v>148585.5182751756</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.397602293610713e-06</v>
+        <v>6.437924324652686e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>103150.8681852682</v>
+        <v>134404.7249521179</v>
       </c>
     </row>
     <row r="8">
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.50794433009528</v>
+        <v>107.7603045036551</v>
       </c>
       <c r="AB8" t="n">
-        <v>112.8910094259969</v>
+        <v>147.4424026709489</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.1168499299357</v>
+        <v>133.3707066967854</v>
       </c>
       <c r="AD8" t="n">
-        <v>82507.94433009528</v>
+        <v>107760.3045036551</v>
       </c>
       <c r="AE8" t="n">
-        <v>112891.0094259969</v>
+        <v>147442.4026709489</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.442538862879717e-06</v>
+        <v>6.503709771595826e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>102116.8499299357</v>
+        <v>133370.7066967854</v>
       </c>
     </row>
     <row r="9">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>82.63920461408352</v>
+        <v>107.8915647876433</v>
       </c>
       <c r="AB9" t="n">
-        <v>113.0706055373446</v>
+        <v>147.6219987822965</v>
       </c>
       <c r="AC9" t="n">
-        <v>102.2793056404811</v>
+        <v>133.5331624073308</v>
       </c>
       <c r="AD9" t="n">
-        <v>82639.20461408353</v>
+        <v>107891.5647876433</v>
       </c>
       <c r="AE9" t="n">
-        <v>113070.6055373446</v>
+        <v>147621.9987822965</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.436188342880927e-06</v>
+        <v>6.49441284921751e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>102279.3056404811</v>
+        <v>133533.1624073308</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.04401057122601</v>
+        <v>98.34596628249632</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.6785259715995</v>
+        <v>134.5612897854762</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.87903156311215</v>
+        <v>121.7189491463427</v>
       </c>
       <c r="AD2" t="n">
-        <v>75044.01057122601</v>
+        <v>98345.96628249632</v>
       </c>
       <c r="AE2" t="n">
-        <v>102678.5259715995</v>
+        <v>134561.2897854762</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.898407579864999e-06</v>
+        <v>7.578441150777965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92879.03156311215</v>
+        <v>121718.9491463427</v>
       </c>
     </row>
     <row r="3">
@@ -6029,28 +6029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.20172714971224</v>
+        <v>96.18554123209961</v>
       </c>
       <c r="AB3" t="n">
-        <v>89.21187958339162</v>
+        <v>131.6053009202984</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.69762300563362</v>
+        <v>119.0450757097001</v>
       </c>
       <c r="AD3" t="n">
-        <v>65201.72714971224</v>
+        <v>96185.54123209961</v>
       </c>
       <c r="AE3" t="n">
-        <v>89211.87958339162</v>
+        <v>131605.3009202984</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.245122149379316e-06</v>
+        <v>8.114851385806628e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>80697.62300563362</v>
+        <v>119045.0757097001</v>
       </c>
     </row>
     <row r="4">
@@ -6135,28 +6135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.6795420796242</v>
+        <v>88.06674913691506</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.49740293331811</v>
+        <v>120.496811399844</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.05133500426862</v>
+        <v>108.9967648382113</v>
       </c>
       <c r="AD4" t="n">
-        <v>64679.5420796242</v>
+        <v>88066.74913691507</v>
       </c>
       <c r="AE4" t="n">
-        <v>88497.40293331811</v>
+        <v>120496.8113998441</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.333659923347613e-06</v>
+        <v>8.25183025061112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>80051.33500426862</v>
+        <v>108996.7648382114</v>
       </c>
     </row>
   </sheetData>
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.10309545800314</v>
+        <v>113.188957504981</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.9688332216434</v>
+        <v>154.870125202627</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.3781235247338</v>
+        <v>140.0895378149166</v>
       </c>
       <c r="AD2" t="n">
-        <v>81103.09545800314</v>
+        <v>113188.957504981</v>
       </c>
       <c r="AE2" t="n">
-        <v>110968.8332216434</v>
+        <v>154870.125202627</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.31203229830317e-06</v>
+        <v>6.51674840414159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>100378.1235247338</v>
+        <v>140089.5378149166</v>
       </c>
     </row>
     <row r="3">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.02020847119782</v>
+        <v>102.0846945149823</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.7506912389235</v>
+        <v>139.6767826942097</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.56255509264389</v>
+        <v>126.3462265915076</v>
       </c>
       <c r="AD3" t="n">
-        <v>78020.20847119782</v>
+        <v>102084.6945149823</v>
       </c>
       <c r="AE3" t="n">
-        <v>106750.6912389235</v>
+        <v>139676.7826942097</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.777348027347852e-06</v>
+        <v>7.219977258866813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>96562.55509264389</v>
+        <v>126346.2265915076</v>
       </c>
     </row>
     <row r="4">
@@ -6644,28 +6644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.77391163273559</v>
+        <v>100.7744328251419</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.09949998671871</v>
+        <v>137.8840248455048</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.11877577748706</v>
+        <v>124.7245670357311</v>
       </c>
       <c r="AD4" t="n">
-        <v>68773.91163273559</v>
+        <v>100774.4328251419</v>
       </c>
       <c r="AE4" t="n">
-        <v>94099.49998671871</v>
+        <v>137884.0248455048</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.925949023245403e-06</v>
+        <v>7.444557047670875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.809895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>85118.77577748706</v>
+        <v>124724.5670357311</v>
       </c>
     </row>
     <row r="5">
@@ -6750,28 +6750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.22454468750648</v>
+        <v>100.2250658799128</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.34783189589753</v>
+        <v>137.1323567546836</v>
       </c>
       <c r="AC5" t="n">
-        <v>84.4388458342808</v>
+        <v>124.0446370925249</v>
       </c>
       <c r="AD5" t="n">
-        <v>68224.54468750648</v>
+        <v>100225.0658799128</v>
       </c>
       <c r="AE5" t="n">
-        <v>93347.83189589753</v>
+        <v>137132.3567546836</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.962035995362762e-06</v>
+        <v>7.499095070971082e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>84438.8458342808</v>
+        <v>124044.6370925249</v>
       </c>
     </row>
     <row r="6">
@@ -6856,28 +6856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>68.26380336232579</v>
+        <v>100.2643245547321</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.40154734675578</v>
+        <v>137.1860722055418</v>
       </c>
       <c r="AC6" t="n">
-        <v>84.48743475789927</v>
+        <v>124.0932260161433</v>
       </c>
       <c r="AD6" t="n">
-        <v>68263.80336232579</v>
+        <v>100264.3245547321</v>
       </c>
       <c r="AE6" t="n">
-        <v>93401.54734675577</v>
+        <v>137186.0722055418</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.963376368612836e-06</v>
+        <v>7.501120768979376e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>84487.43475789926</v>
+        <v>124093.2260161433</v>
       </c>
     </row>
   </sheetData>
@@ -7153,28 +7153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.05873856987928</v>
+        <v>93.20864426387186</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.27974806648193</v>
+        <v>127.5321791569459</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.04533000542443</v>
+        <v>115.3606869707784</v>
       </c>
       <c r="AD2" t="n">
-        <v>63058.73856987928</v>
+        <v>93208.64426387186</v>
       </c>
       <c r="AE2" t="n">
-        <v>86279.74806648193</v>
+        <v>127532.1791569459</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.368838945399643e-06</v>
+        <v>8.485385475287399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.783854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78045.33000542443</v>
+        <v>115360.6869707784</v>
       </c>
     </row>
     <row r="3">
@@ -7259,28 +7259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.21335054002337</v>
+        <v>84.97512630601815</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.12305086814598</v>
+        <v>116.2667166498398</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.99902636426259</v>
+        <v>105.170384394171</v>
       </c>
       <c r="AD3" t="n">
-        <v>62213.35054002337</v>
+        <v>84975.12630601815</v>
       </c>
       <c r="AE3" t="n">
-        <v>85123.05086814598</v>
+        <v>116266.7166498398</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.548913055875918e-06</v>
+        <v>8.769990444266765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>76999.02636426259</v>
+        <v>105170.3843941709</v>
       </c>
     </row>
   </sheetData>
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.8424737546451</v>
+        <v>154.042794816254</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.0278067327477</v>
+        <v>210.7681477559817</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.4230476340917</v>
+        <v>190.6527315491643</v>
       </c>
       <c r="AD2" t="n">
-        <v>111842.4737546451</v>
+        <v>154042.794816254</v>
       </c>
       <c r="AE2" t="n">
-        <v>153027.8067327477</v>
+        <v>210768.1477559817</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.356311934918245e-06</v>
+        <v>4.893121151217205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>138423.0476340918</v>
+        <v>190652.7315491643</v>
       </c>
     </row>
     <row r="3">
@@ -7662,28 +7662,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.41209201483926</v>
+        <v>131.2235712785795</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.2835218128436</v>
+        <v>179.545879398659</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.563129555659</v>
+        <v>162.4102726631257</v>
       </c>
       <c r="AD3" t="n">
-        <v>97412.09201483926</v>
+        <v>131223.5712785795</v>
       </c>
       <c r="AE3" t="n">
-        <v>133283.5218128436</v>
+        <v>179545.879398659</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.887117388727343e-06</v>
+        <v>5.666975144403335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.020833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>120563.129555659</v>
+        <v>162410.2726631257</v>
       </c>
     </row>
     <row r="4">
@@ -7768,28 +7768,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.76092954200692</v>
+        <v>120.6576601517678</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.710131421397</v>
+        <v>165.0891336598616</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.3806030892856</v>
+        <v>149.3332584474644</v>
       </c>
       <c r="AD4" t="n">
-        <v>86760.92954200692</v>
+        <v>120657.6601517678</v>
       </c>
       <c r="AE4" t="n">
-        <v>118710.1314213969</v>
+        <v>165089.1336598616</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.112007374071222e-06</v>
+        <v>5.994839170549005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH4" t="n">
-        <v>107380.6030892856</v>
+        <v>149333.2584474644</v>
       </c>
     </row>
     <row r="5">
@@ -7874,28 +7874,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.8705646518993</v>
+        <v>119.596703061068</v>
       </c>
       <c r="AB5" t="n">
-        <v>117.4918948986256</v>
+        <v>163.6374853622434</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.2786333504415</v>
+        <v>148.0201534259693</v>
       </c>
       <c r="AD5" t="n">
-        <v>85870.5646518993</v>
+        <v>119596.703061068</v>
       </c>
       <c r="AE5" t="n">
-        <v>117491.8948986256</v>
+        <v>163637.4853622434</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.193272152771776e-06</v>
+        <v>6.113313977187724e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>106278.6333504415</v>
+        <v>148020.1534259693</v>
       </c>
     </row>
     <row r="6">
@@ -7980,28 +7980,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.05908700947397</v>
+        <v>118.7852254186426</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.3815953883929</v>
+        <v>162.5271858520107</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.2742992671498</v>
+        <v>147.0158193426776</v>
       </c>
       <c r="AD6" t="n">
-        <v>85059.08700947397</v>
+        <v>118785.2254186426</v>
       </c>
       <c r="AE6" t="n">
-        <v>116381.5953883929</v>
+        <v>162527.1858520107</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.273986551640142e-06</v>
+        <v>6.230986392615406e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>105274.2992671498</v>
+        <v>147015.8193426777</v>
       </c>
     </row>
     <row r="7">
@@ -8086,28 +8086,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.54024520631177</v>
+        <v>109.9628826721835</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.6716931436218</v>
+        <v>150.4560672920187</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.6321490962654</v>
+        <v>136.0967513961261</v>
       </c>
       <c r="AD7" t="n">
-        <v>84540.24520631177</v>
+        <v>109962.8826721834</v>
       </c>
       <c r="AE7" t="n">
-        <v>115671.6931436218</v>
+        <v>150456.0672920187</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.313350674420593e-06</v>
+        <v>6.288374807491935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>104632.1490962654</v>
+        <v>136096.7513961261</v>
       </c>
     </row>
     <row r="8">
@@ -8192,28 +8192,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.09810757944636</v>
+        <v>109.5207450453181</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.0667409368094</v>
+        <v>149.8511150852063</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.0849326790153</v>
+        <v>135.549534978876</v>
       </c>
       <c r="AD8" t="n">
-        <v>84098.10757944637</v>
+        <v>109520.745045318</v>
       </c>
       <c r="AE8" t="n">
-        <v>115066.7409368094</v>
+        <v>149851.1150852063</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.316389728276592e-06</v>
+        <v>6.292805402439849e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>104084.9326790153</v>
+        <v>135549.534978876</v>
       </c>
     </row>
     <row r="9">
@@ -8298,28 +8298,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.6894209385479</v>
+        <v>109.1120584044196</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.5075578447503</v>
+        <v>149.2919319931472</v>
       </c>
       <c r="AC9" t="n">
-        <v>103.5791172364437</v>
+        <v>135.0437195363044</v>
       </c>
       <c r="AD9" t="n">
-        <v>83689.4209385479</v>
+        <v>109112.0584044196</v>
       </c>
       <c r="AE9" t="n">
-        <v>114507.5578447503</v>
+        <v>149291.9319931472</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.356328160447152e-06</v>
+        <v>6.35103109510181e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>103579.1172364437</v>
+        <v>135043.7195363044</v>
       </c>
     </row>
     <row r="10">
@@ -8404,28 +8404,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.65164184851115</v>
+        <v>109.0742793143828</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.4558668270662</v>
+        <v>149.2402409754631</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.5323595369386</v>
+        <v>134.9969618367993</v>
       </c>
       <c r="AD10" t="n">
-        <v>83651.64184851115</v>
+        <v>109074.2793143828</v>
       </c>
       <c r="AE10" t="n">
-        <v>114455.8668270662</v>
+        <v>149240.2409754631</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.357883581712034e-06</v>
+        <v>6.353298722437359e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH10" t="n">
-        <v>103532.3595369386</v>
+        <v>134996.9618367993</v>
       </c>
     </row>
   </sheetData>
@@ -8701,28 +8701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.79418575391458</v>
+        <v>90.45029282351776</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.18128699866129</v>
+        <v>123.7580810263782</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.24258171319819</v>
+        <v>111.9467834688108</v>
       </c>
       <c r="AD2" t="n">
-        <v>60794.18575391459</v>
+        <v>90450.29282351775</v>
       </c>
       <c r="AE2" t="n">
-        <v>83181.28699866129</v>
+        <v>123758.0810263782</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.637675907802011e-06</v>
+        <v>9.032881081278721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>75242.58171319819</v>
+        <v>111946.7834688109</v>
       </c>
     </row>
     <row r="3">
@@ -8807,28 +8807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.78067966624383</v>
+        <v>83.17210646394655</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.16280737366363</v>
+        <v>113.7997453582972</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.22586575767397</v>
+        <v>102.9388573802764</v>
       </c>
       <c r="AD3" t="n">
-        <v>60780.67966624383</v>
+        <v>83172.10646394655</v>
       </c>
       <c r="AE3" t="n">
-        <v>83162.80737366363</v>
+        <v>113799.7453582972</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.673043653298251e-06</v>
+        <v>9.089548517364991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.575520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>75225.86575767398</v>
+        <v>102938.8573802764</v>
       </c>
     </row>
   </sheetData>
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.04580831424694</v>
+        <v>127.8934082561175</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.0458680606256</v>
+        <v>174.9894034349051</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.6344729334761</v>
+        <v>158.2886603702968</v>
       </c>
       <c r="AD2" t="n">
-        <v>95045.80831424694</v>
+        <v>127893.4082561175</v>
       </c>
       <c r="AE2" t="n">
-        <v>130045.8680606256</v>
+        <v>174989.403434905</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.869427750543107e-06</v>
+        <v>5.74549347217793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.372395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>117634.4729334761</v>
+        <v>158288.6603702967</v>
       </c>
     </row>
     <row r="3">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.65119886060064</v>
+        <v>115.4134579478996</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.0870165945781</v>
+        <v>157.91378484666</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.2941504494454</v>
+        <v>142.8427148543272</v>
       </c>
       <c r="AD3" t="n">
-        <v>82651.19886060065</v>
+        <v>115413.4579478996</v>
       </c>
       <c r="AE3" t="n">
-        <v>113087.0165945781</v>
+        <v>157913.78484666</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.368462374793394e-06</v>
+        <v>6.486481639128031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>102294.1504494454</v>
+        <v>142842.7148543272</v>
       </c>
     </row>
     <row r="4">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.45645019046468</v>
+        <v>106.1561781649341</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4523087555076</v>
+        <v>145.2475662452525</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.8154568322083</v>
+        <v>131.3853423790845</v>
       </c>
       <c r="AD4" t="n">
-        <v>81456.45019046467</v>
+        <v>106156.1781649341</v>
       </c>
       <c r="AE4" t="n">
-        <v>111452.3087555076</v>
+        <v>145247.5662452525</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.512632355726163e-06</v>
+        <v>6.700551454546339e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>100815.4568322083</v>
+        <v>131385.3423790845</v>
       </c>
     </row>
     <row r="5">
@@ -9422,28 +9422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.64637565977951</v>
+        <v>105.3461036342489</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.3439290446587</v>
+        <v>144.1391865344036</v>
       </c>
       <c r="AC5" t="n">
-        <v>99.81285932534176</v>
+        <v>130.382744872218</v>
       </c>
       <c r="AD5" t="n">
-        <v>80646.37565977951</v>
+        <v>105346.1036342489</v>
       </c>
       <c r="AE5" t="n">
-        <v>110343.9290446587</v>
+        <v>144139.1865344036</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.588212752977889e-06</v>
+        <v>6.812776493241907e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>99812.85932534176</v>
+        <v>130382.744872218</v>
       </c>
     </row>
     <row r="6">
@@ -9528,28 +9528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>71.47244674977922</v>
+        <v>104.3199571830988</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.7917547848231</v>
+        <v>142.7351676895543</v>
       </c>
       <c r="AC6" t="n">
-        <v>88.4586469597737</v>
+        <v>129.1127236153678</v>
       </c>
       <c r="AD6" t="n">
-        <v>71472.44674977922</v>
+        <v>104319.9571830988</v>
       </c>
       <c r="AE6" t="n">
-        <v>97791.7547848231</v>
+        <v>142735.1676895542</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>6.936453066498249e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>88458.6469597737</v>
+        <v>129112.7236153678</v>
       </c>
     </row>
     <row r="7">
@@ -9634,28 +9634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>71.32753961229056</v>
+        <v>104.1750500456101</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.59348644645954</v>
+        <v>142.5368993511907</v>
       </c>
       <c r="AC7" t="n">
-        <v>88.27930107335212</v>
+        <v>128.9333777289462</v>
       </c>
       <c r="AD7" t="n">
-        <v>71327.53961229057</v>
+        <v>104175.0500456101</v>
       </c>
       <c r="AE7" t="n">
-        <v>97593.48644645953</v>
+        <v>142536.8993511907</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.671505435663465e-06</v>
+        <v>6.936453066498249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>88279.30107335212</v>
+        <v>128933.3777289462</v>
       </c>
     </row>
   </sheetData>
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.88707265886322</v>
+        <v>140.5942624125246</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.3016554015496</v>
+        <v>192.3672724138322</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3886553071279</v>
+        <v>174.0080099238729</v>
       </c>
       <c r="AD2" t="n">
-        <v>98887.07265886322</v>
+        <v>140594.2624125245</v>
       </c>
       <c r="AE2" t="n">
-        <v>135301.6554015496</v>
+        <v>192367.2724138323</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.612276669379722e-06</v>
+        <v>5.311645061069718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.7890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>122388.6553071279</v>
+        <v>174008.0099238729</v>
       </c>
     </row>
     <row r="3">
@@ -10037,28 +10037,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.61890517943102</v>
+        <v>119.0529296660174</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.1475633059623</v>
+        <v>162.8934706135465</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.9671642817094</v>
+        <v>147.3471464006565</v>
       </c>
       <c r="AD3" t="n">
-        <v>85618.90517943102</v>
+        <v>119052.9296660174</v>
       </c>
       <c r="AE3" t="n">
-        <v>117147.5633059623</v>
+        <v>162893.4706135465</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.134991685124125e-06</v>
+        <v>6.080267424705695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.682291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105967.1642817094</v>
+        <v>147347.1464006565</v>
       </c>
     </row>
     <row r="4">
@@ -10143,28 +10143,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.30026971096034</v>
+        <v>117.5637019969545</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.3433480839105</v>
+        <v>160.8558436166478</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.3351408282177</v>
+        <v>145.5039876645137</v>
       </c>
       <c r="AD4" t="n">
-        <v>84300.26971096033</v>
+        <v>117563.7019969545</v>
       </c>
       <c r="AE4" t="n">
-        <v>115343.3480839105</v>
+        <v>160855.8436166478</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.278955259223472e-06</v>
+        <v>6.291957579510491e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>104335.1408282177</v>
+        <v>145503.9876645137</v>
       </c>
     </row>
     <row r="5">
@@ -10249,28 +10249,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>83.18115399229448</v>
+        <v>108.2567618657853</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.8121245857316</v>
+        <v>148.1216775359682</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.9500551516188</v>
+        <v>133.9851525220557</v>
       </c>
       <c r="AD5" t="n">
-        <v>83181.15399229448</v>
+        <v>108256.7618657853</v>
       </c>
       <c r="AE5" t="n">
-        <v>113812.1245857316</v>
+        <v>148121.6775359682</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.407927705982644e-06</v>
+        <v>6.481604143864063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>102950.0551516188</v>
+        <v>133985.1525220557</v>
       </c>
     </row>
     <row r="6">
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>82.66528187722736</v>
+        <v>107.7408897507182</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.1062855992257</v>
+        <v>147.4158385494622</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.3115804473335</v>
+        <v>133.3466778177704</v>
       </c>
       <c r="AD6" t="n">
-        <v>82665.28187722736</v>
+        <v>107740.8897507182</v>
       </c>
       <c r="AE6" t="n">
-        <v>113106.2855992257</v>
+        <v>147415.8385494622</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.443418895262807e-06</v>
+        <v>6.533791896216887e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.1484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>102311.5804473335</v>
+        <v>133346.6778177704</v>
       </c>
     </row>
     <row r="7">
@@ -10461,28 +10461,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.08899876012886</v>
+        <v>107.1646066336197</v>
       </c>
       <c r="AB7" t="n">
-        <v>112.3177896145951</v>
+        <v>146.6273425648316</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.5983374128148</v>
+        <v>132.6334347832516</v>
       </c>
       <c r="AD7" t="n">
-        <v>82088.99876012886</v>
+        <v>107164.6066336197</v>
       </c>
       <c r="AE7" t="n">
-        <v>112317.7896145951</v>
+        <v>146627.3425648316</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.482225195629581e-06</v>
+        <v>6.590854328734537e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>101598.3374128148</v>
+        <v>132633.4347832516</v>
       </c>
     </row>
     <row r="8">
@@ -10567,28 +10567,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>81.39587457815463</v>
+        <v>106.4714824516455</v>
       </c>
       <c r="AB8" t="n">
-        <v>111.3694265303376</v>
+        <v>145.6789794805742</v>
       </c>
       <c r="AC8" t="n">
-        <v>100.7404847702826</v>
+        <v>131.7755821407195</v>
       </c>
       <c r="AD8" t="n">
-        <v>81395.87457815463</v>
+        <v>106471.4824516455</v>
       </c>
       <c r="AE8" t="n">
-        <v>111369.4265303376</v>
+        <v>145678.9794805742</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.527783597253639e-06</v>
+        <v>6.657845337764365e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>100740.4847702826</v>
+        <v>131775.5821407195</v>
       </c>
     </row>
   </sheetData>
@@ -10864,28 +10864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.7184207049356</v>
+        <v>158.6283967465809</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.3310483448437</v>
+        <v>217.0423706195312</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.2201553098774</v>
+        <v>196.3281513885458</v>
       </c>
       <c r="AD2" t="n">
-        <v>115718.4207049356</v>
+        <v>158628.3967465809</v>
       </c>
       <c r="AE2" t="n">
-        <v>158331.0483448437</v>
+        <v>217042.3706195312</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.165682495933656e-06</v>
+        <v>4.580022399948851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.674479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>143220.1553098774</v>
+        <v>196328.1513885458</v>
       </c>
     </row>
     <row r="3">
@@ -10970,28 +10970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.3945445559939</v>
+        <v>134.6372740432896</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3642449561691</v>
+        <v>184.2166581232699</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.2543942095178</v>
+        <v>166.6352788217403</v>
       </c>
       <c r="AD3" t="n">
-        <v>100394.5445559939</v>
+        <v>134637.2740432895</v>
       </c>
       <c r="AE3" t="n">
-        <v>137364.2449561691</v>
+        <v>184216.6581232699</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.700523293691825e-06</v>
+        <v>5.353815361588382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>124254.3942095178</v>
+        <v>166635.2788217403</v>
       </c>
     </row>
     <row r="4">
@@ -11076,28 +11076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.38764677607624</v>
+        <v>123.7156276093925</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.3041218236345</v>
+        <v>169.2731796433846</v>
       </c>
       <c r="AC4" t="n">
-        <v>110.631588091732</v>
+        <v>153.1179849546667</v>
       </c>
       <c r="AD4" t="n">
-        <v>89387.64677607623</v>
+        <v>123715.6276093925</v>
       </c>
       <c r="AE4" t="n">
-        <v>122304.1218236345</v>
+        <v>169273.1796433846</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.925710750815853e-06</v>
+        <v>5.67961038340133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.799479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>110631.588091732</v>
+        <v>153117.9849546667</v>
       </c>
     </row>
     <row r="5">
@@ -11182,28 +11182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.3220292098905</v>
+        <v>122.6500100432068</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.8460968578509</v>
+        <v>167.8151546776009</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.3127149823314</v>
+        <v>151.7991118452661</v>
       </c>
       <c r="AD5" t="n">
-        <v>88322.0292098905</v>
+        <v>122650.0100432068</v>
       </c>
       <c r="AE5" t="n">
-        <v>120846.0968578509</v>
+        <v>167815.1546776009</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.032998892544574e-06</v>
+        <v>5.834831917145668e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.591145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>109312.7149823314</v>
+        <v>151799.1118452661</v>
       </c>
     </row>
     <row r="6">
@@ -11288,28 +11288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.77456473150291</v>
+        <v>122.1025455648192</v>
       </c>
       <c r="AB6" t="n">
-        <v>120.0970318060931</v>
+        <v>167.0660896258431</v>
       </c>
       <c r="AC6" t="n">
-        <v>108.6351396477937</v>
+        <v>151.1215365107284</v>
       </c>
       <c r="AD6" t="n">
-        <v>87774.56473150291</v>
+        <v>122102.5455648192</v>
       </c>
       <c r="AE6" t="n">
-        <v>120097.0318060931</v>
+        <v>167066.0896258432</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.07471421607199e-06</v>
+        <v>5.895184500331788e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.513020833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>108635.1396477937</v>
+        <v>151121.5365107284</v>
       </c>
     </row>
     <row r="7">
@@ -11394,28 +11394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.22673283604409</v>
+        <v>121.3841214687681</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.3474640380893</v>
+        <v>166.0831100829924</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.9571095755429</v>
+        <v>150.2323711558266</v>
       </c>
       <c r="AD7" t="n">
-        <v>87226.73283604409</v>
+        <v>121384.1214687681</v>
       </c>
       <c r="AE7" t="n">
-        <v>119347.4640380893</v>
+        <v>166083.1100829924</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.115700168460462e-06</v>
+        <v>5.954481849406927e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>107957.1095755429</v>
+        <v>150232.3711558266</v>
       </c>
     </row>
     <row r="8">
@@ -11500,28 +11500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>86.75635193543307</v>
+        <v>120.9137405681571</v>
       </c>
       <c r="AB8" t="n">
-        <v>118.7038681381329</v>
+        <v>165.439514183036</v>
       </c>
       <c r="AC8" t="n">
-        <v>107.3749375649856</v>
+        <v>149.6501991452693</v>
       </c>
       <c r="AD8" t="n">
-        <v>86756.35193543308</v>
+        <v>120913.7405681571</v>
       </c>
       <c r="AE8" t="n">
-        <v>118703.8681381329</v>
+        <v>165439.514183036</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.154874457052197e-06</v>
+        <v>6.011158133109629e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.369791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>107374.9375649856</v>
+        <v>149650.1991452693</v>
       </c>
     </row>
     <row r="9">
@@ -11606,28 +11606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.8804567941863</v>
+        <v>120.0378454269104</v>
       </c>
       <c r="AB9" t="n">
-        <v>117.5054297641132</v>
+        <v>164.2410758090164</v>
       </c>
       <c r="AC9" t="n">
-        <v>106.2908764673632</v>
+        <v>148.5661380476469</v>
       </c>
       <c r="AD9" t="n">
-        <v>85880.45679418631</v>
+        <v>120037.8454269104</v>
       </c>
       <c r="AE9" t="n">
-        <v>117505.4297641132</v>
+        <v>164241.0758090164</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.201648322349719e-06</v>
+        <v>6.078829275452555e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>106290.8764673632</v>
+        <v>148566.1380476469</v>
       </c>
     </row>
     <row r="10">
@@ -11712,28 +11712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.76619625170584</v>
+        <v>119.9235848844299</v>
       </c>
       <c r="AB10" t="n">
-        <v>117.3490934490721</v>
+        <v>164.0847394939753</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.1494606708102</v>
+        <v>148.4247222510939</v>
       </c>
       <c r="AD10" t="n">
-        <v>85766.19625170584</v>
+        <v>119923.5848844299</v>
       </c>
       <c r="AE10" t="n">
-        <v>117349.0934490721</v>
+        <v>164084.7394939753</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.202071828172332e-06</v>
+        <v>6.079441992033125e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>106149.4606708102</v>
+        <v>148424.7222510939</v>
       </c>
     </row>
     <row r="11">
@@ -11818,28 +11818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>85.31829521141145</v>
+        <v>119.4756838441355</v>
       </c>
       <c r="AB11" t="n">
-        <v>116.7362554857423</v>
+        <v>163.4719015306455</v>
       </c>
       <c r="AC11" t="n">
-        <v>105.595111102577</v>
+        <v>147.8703726828606</v>
       </c>
       <c r="AD11" t="n">
-        <v>85318.29521141146</v>
+        <v>119475.6838441355</v>
       </c>
       <c r="AE11" t="n">
-        <v>116736.2554857424</v>
+        <v>163471.9015306455</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.207906797283894e-06</v>
+        <v>6.087883864920974e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>105595.111102577</v>
+        <v>147870.3726828606</v>
       </c>
     </row>
   </sheetData>
@@ -12115,28 +12115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.71649705407157</v>
+        <v>115.0997339868669</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.176360463638</v>
+        <v>157.4845338826509</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3749674650371</v>
+        <v>142.4544309998654</v>
       </c>
       <c r="AD2" t="n">
-        <v>82716.49705407157</v>
+        <v>115099.7339868669</v>
       </c>
       <c r="AE2" t="n">
-        <v>113176.360463638</v>
+        <v>157484.5338826509</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.183613095737073e-06</v>
+        <v>6.28246741694291e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>102374.9674650371</v>
+        <v>142454.4309998654</v>
       </c>
     </row>
     <row r="3">
@@ -12221,28 +12221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.82474266907398</v>
+        <v>104.1122598772215</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.2197345388866</v>
+        <v>142.4509870726947</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.79595636538335</v>
+        <v>128.8556647977312</v>
       </c>
       <c r="AD3" t="n">
-        <v>79824.74266907398</v>
+        <v>104112.2598772215</v>
       </c>
       <c r="AE3" t="n">
-        <v>109219.7345388866</v>
+        <v>142450.9870726947</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.604949955294606e-06</v>
+        <v>6.915182496266204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>98795.95636538335</v>
+        <v>128855.6647977312</v>
       </c>
     </row>
     <row r="4">
@@ -12327,28 +12327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.3345263663427</v>
+        <v>102.6324224445664</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.23480191470179</v>
+        <v>140.426208211517</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.05028748637918</v>
+        <v>127.0241279892687</v>
       </c>
       <c r="AD4" t="n">
-        <v>70334.5263663427</v>
+        <v>102632.4224445664</v>
       </c>
       <c r="AE4" t="n">
-        <v>96234.80191470179</v>
+        <v>140426.208211517</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.765385297878496e-06</v>
+        <v>7.156105781771836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>87050.28748637918</v>
+        <v>127024.1279892687</v>
       </c>
     </row>
     <row r="5">
@@ -12433,28 +12433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.49889985850469</v>
+        <v>101.7967959367284</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.09146086143868</v>
+        <v>139.2828671582539</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.01606529854989</v>
+        <v>125.9899058014394</v>
       </c>
       <c r="AD5" t="n">
-        <v>69498.89985850468</v>
+        <v>101796.7959367284</v>
       </c>
       <c r="AE5" t="n">
-        <v>95091.46086143868</v>
+        <v>139282.8671582539</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.847575639176828e-06</v>
+        <v>7.27952975272181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.8359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>86016.06529854989</v>
+        <v>125989.9058014394</v>
       </c>
     </row>
     <row r="6">
@@ -12539,28 +12539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.25727706203047</v>
+        <v>101.5551731402541</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.76086189165737</v>
+        <v>138.9522681884726</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.71701823044583</v>
+        <v>125.6908587333354</v>
       </c>
       <c r="AD6" t="n">
-        <v>69257.27706203047</v>
+        <v>101555.1731402541</v>
       </c>
       <c r="AE6" t="n">
-        <v>94760.86189165738</v>
+        <v>138952.2681884726</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.877254777595488e-06</v>
+        <v>7.324098458242922e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>85717.01823044583</v>
+        <v>125690.8587333354</v>
       </c>
     </row>
   </sheetData>
@@ -12836,28 +12836,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.96186911853721</v>
+        <v>108.2240448862663</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.302624645977</v>
+        <v>148.0769127212191</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.25268994295351</v>
+        <v>133.9446599983984</v>
       </c>
       <c r="AD2" t="n">
-        <v>76961.86911853722</v>
+        <v>108224.0448862663</v>
       </c>
       <c r="AE2" t="n">
-        <v>105302.624645977</v>
+        <v>148076.9127212191</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712754117266806e-06</v>
+        <v>7.228171305636936e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>95252.68994295351</v>
+        <v>133944.6599983984</v>
       </c>
     </row>
     <row r="3">
@@ -12942,28 +12942,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.92338553012516</v>
+        <v>98.27081264387488</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.56752853367855</v>
+        <v>134.4584612615699</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.82845212628</v>
+        <v>121.6259344324372</v>
       </c>
       <c r="AD3" t="n">
-        <v>66923.38553012516</v>
+        <v>98270.81264387487</v>
       </c>
       <c r="AE3" t="n">
-        <v>91567.52853367856</v>
+        <v>134458.4612615699</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.05733563388349e-06</v>
+        <v>7.756672086472509e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.822916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>82828.45212628</v>
+        <v>121625.9344324372</v>
       </c>
     </row>
     <row r="4">
@@ -13048,28 +13048,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.10021132488153</v>
+        <v>97.44763843863123</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.44122527018189</v>
+        <v>133.3321579980732</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.80964166547453</v>
+        <v>120.6071239716317</v>
       </c>
       <c r="AD4" t="n">
-        <v>66100.21132488153</v>
+        <v>97447.63843863123</v>
       </c>
       <c r="AE4" t="n">
-        <v>90441.22527018189</v>
+        <v>133332.1579980732</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.178320972473975e-06</v>
+        <v>7.942232956198021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>81809.64166547453</v>
+        <v>120607.1239716317</v>
       </c>
     </row>
     <row r="5">
@@ -13154,28 +13154,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.15134405284429</v>
+        <v>97.498771166594</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.51118732439727</v>
+        <v>133.4021200522886</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.87292663942797</v>
+        <v>120.6704089455852</v>
       </c>
       <c r="AD5" t="n">
-        <v>66151.34405284429</v>
+        <v>97498.771166594</v>
       </c>
       <c r="AE5" t="n">
-        <v>90511.18732439727</v>
+        <v>133402.1200522886</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.177764169469284e-06</v>
+        <v>7.941378961399808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>81872.92663942797</v>
+        <v>120670.4089455852</v>
       </c>
     </row>
   </sheetData>
@@ -23856,28 +23856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.22732180677352</v>
+        <v>95.81502131256711</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.24689932233942</v>
+        <v>131.0983392202092</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.72930050984675</v>
+        <v>118.5864977227419</v>
       </c>
       <c r="AD2" t="n">
-        <v>65227.32180677352</v>
+        <v>95815.02131256711</v>
       </c>
       <c r="AE2" t="n">
-        <v>89246.89932233942</v>
+        <v>131098.3392202092</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.110267020118948e-06</v>
+        <v>7.984691417050824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>80729.30050984675</v>
+        <v>118586.4977227419</v>
       </c>
     </row>
     <row r="3">
@@ -23962,28 +23962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.64572853248909</v>
+        <v>94.2334280382827</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.08289362949377</v>
+        <v>128.9343335273635</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.77182448312453</v>
+        <v>116.6290216960197</v>
       </c>
       <c r="AD3" t="n">
-        <v>63645.7285324891</v>
+        <v>94233.4280382827</v>
       </c>
       <c r="AE3" t="n">
-        <v>87082.89362949377</v>
+        <v>128934.3335273635</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.400975924057638e-06</v>
+        <v>8.438918345115627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.614583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>78771.82448312454</v>
+        <v>116629.0216960197</v>
       </c>
     </row>
     <row r="4">
@@ -24068,28 +24068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.55812901139339</v>
+        <v>86.64825013623893</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.96303610011256</v>
+        <v>118.5559584873607</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.66340598812634</v>
+        <v>107.2411442036906</v>
       </c>
       <c r="AD4" t="n">
-        <v>63558.12901139339</v>
+        <v>86648.25013623893</v>
       </c>
       <c r="AE4" t="n">
-        <v>86963.03610011256</v>
+        <v>118555.9584873607</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.444750941576851e-06</v>
+        <v>8.507315946511175e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>78663.40598812634</v>
+        <v>107241.1442036906</v>
       </c>
     </row>
   </sheetData>
@@ -24365,28 +24365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.91774847168769</v>
+        <v>87.99943225377446</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.61386272654934</v>
+        <v>120.4047054705198</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.92018881021318</v>
+        <v>108.9134493695103</v>
       </c>
       <c r="AD2" t="n">
-        <v>58917.74847168769</v>
+        <v>87999.43225377446</v>
       </c>
       <c r="AE2" t="n">
-        <v>80613.86272654934</v>
+        <v>120404.7054705198</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.781086234783603e-06</v>
+        <v>9.421298260194488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>72920.18881021318</v>
+        <v>108913.4493695103</v>
       </c>
     </row>
   </sheetData>
@@ -24662,28 +24662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.34222560326828</v>
+        <v>138.7428629448021</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.1879275062436</v>
+        <v>189.8341059841156</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.4766586355135</v>
+        <v>171.7166053428863</v>
       </c>
       <c r="AD2" t="n">
-        <v>97342.22560326828</v>
+        <v>138742.8629448021</v>
       </c>
       <c r="AE2" t="n">
-        <v>133187.9275062436</v>
+        <v>189834.1059841156</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.709097661971843e-06</v>
+        <v>5.479749688808913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.645833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120476.6586355135</v>
+        <v>171716.6053428863</v>
       </c>
     </row>
     <row r="3">
@@ -24768,28 +24768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.25222062179165</v>
+        <v>117.441003178676</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.2776052003337</v>
+        <v>160.6879616803894</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.2756723531787</v>
+        <v>145.352128144628</v>
       </c>
       <c r="AD3" t="n">
-        <v>84252.22062179165</v>
+        <v>117441.003178676</v>
       </c>
       <c r="AE3" t="n">
-        <v>115277.6052003337</v>
+        <v>160687.9616803894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.232107045619218e-06</v>
+        <v>6.252433712923347e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>104275.6723531787</v>
+        <v>145352.128144628</v>
       </c>
     </row>
     <row r="4">
@@ -24874,28 +24874,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.69010503524937</v>
+        <v>107.5817814614637</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.1402497391518</v>
+        <v>147.1981395687419</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.3423030974141</v>
+        <v>133.1497557222276</v>
       </c>
       <c r="AD4" t="n">
-        <v>82690.10503524938</v>
+        <v>107581.7814614637</v>
       </c>
       <c r="AE4" t="n">
-        <v>113140.2497391518</v>
+        <v>147198.1395687419</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.420172790379259e-06</v>
+        <v>6.530278434266323e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.252604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>102342.3030974141</v>
+        <v>133149.7557222276</v>
       </c>
     </row>
     <row r="5">
@@ -24980,28 +24980,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.04030159206658</v>
+        <v>106.9319780182809</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.2511600008849</v>
+        <v>146.309049830475</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.5380668359218</v>
+        <v>132.3455194607353</v>
       </c>
       <c r="AD5" t="n">
-        <v>82040.30159206658</v>
+        <v>106931.9780182809</v>
       </c>
       <c r="AE5" t="n">
-        <v>112251.1600008848</v>
+        <v>146309.049830475</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.491642204836439e-06</v>
+        <v>6.635865975313404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.135416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>101538.0668359218</v>
+        <v>132345.5194607353</v>
       </c>
     </row>
     <row r="6">
@@ -25086,28 +25086,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.33070596430709</v>
+        <v>106.2223823905214</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.2802599578351</v>
+        <v>145.3381497874253</v>
       </c>
       <c r="AC6" t="n">
-        <v>100.6598281303136</v>
+        <v>131.4672807551271</v>
       </c>
       <c r="AD6" t="n">
-        <v>81330.70596430708</v>
+        <v>106222.3823905214</v>
       </c>
       <c r="AE6" t="n">
-        <v>111280.2599578351</v>
+        <v>145338.1497874253</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.540412756004083e-06</v>
+        <v>6.707918651446462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>100659.8281303136</v>
+        <v>131467.2807551271</v>
       </c>
     </row>
     <row r="7">
@@ -25192,28 +25192,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.60230200857268</v>
+        <v>105.493978434787</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.2836255306852</v>
+        <v>144.3415153602754</v>
       </c>
       <c r="AC7" t="n">
-        <v>99.75831109410542</v>
+        <v>130.5657637189189</v>
       </c>
       <c r="AD7" t="n">
-        <v>80602.30200857267</v>
+        <v>105493.978434787</v>
       </c>
       <c r="AE7" t="n">
-        <v>110283.6255306852</v>
+        <v>144341.5153602754</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.579606454872782e-06</v>
+        <v>6.765822669822955e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.005208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>99758.31109410542</v>
+        <v>130565.7637189189</v>
       </c>
     </row>
     <row r="8">
@@ -25298,28 +25298,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>71.85577964719573</v>
+        <v>104.9592213495084</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.316247766522</v>
+        <v>143.6098371243801</v>
       </c>
       <c r="AC8" t="n">
-        <v>88.93308306742993</v>
+        <v>129.9039158269404</v>
       </c>
       <c r="AD8" t="n">
-        <v>71855.77964719573</v>
+        <v>104959.2213495084</v>
       </c>
       <c r="AE8" t="n">
-        <v>98316.24776652199</v>
+        <v>143609.8371243801</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.621877548439084e-06</v>
+        <v>6.828273172054383e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>88933.08306742994</v>
+        <v>129903.9158269404</v>
       </c>
     </row>
   </sheetData>
@@ -25595,28 +25595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.7584454585504</v>
+        <v>156.2327674614909</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.6493237447357</v>
+        <v>213.7645649439678</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.7943707417786</v>
+        <v>193.3631748862278</v>
       </c>
       <c r="AD2" t="n">
-        <v>113758.4454585504</v>
+        <v>156232.7674614909</v>
       </c>
       <c r="AE2" t="n">
-        <v>155649.3237447357</v>
+        <v>213764.5649439678</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.259271043106294e-06</v>
+        <v>4.733012422335167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>140794.3707417786</v>
+        <v>193363.1748862278</v>
       </c>
     </row>
     <row r="3">
@@ -25701,28 +25701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.63465189122338</v>
+        <v>132.6653319080289</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.9562821712466</v>
+        <v>181.5185598978605</v>
       </c>
       <c r="AC3" t="n">
-        <v>122.0762440131905</v>
+        <v>164.1946833041585</v>
       </c>
       <c r="AD3" t="n">
-        <v>98634.65189122339</v>
+        <v>132665.3319080289</v>
       </c>
       <c r="AE3" t="n">
-        <v>134956.2821712466</v>
+        <v>181518.5598978605</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.816163610405813e-06</v>
+        <v>5.541714553601513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.098958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>122076.2440131905</v>
+        <v>164194.6833041585</v>
       </c>
     </row>
     <row r="4">
@@ -25807,28 +25807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.16811572844115</v>
+        <v>122.2840470912672</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.6355056423484</v>
+        <v>167.3144280216115</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.1222222968697</v>
+        <v>151.3461738385499</v>
       </c>
       <c r="AD4" t="n">
-        <v>88168.11572844115</v>
+        <v>122284.0470912672</v>
       </c>
       <c r="AE4" t="n">
-        <v>120635.5056423484</v>
+        <v>167314.4280216116</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.00365283079297e-06</v>
+        <v>5.813980590212144e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.721354166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>109122.2222968697</v>
+        <v>151346.1738385499</v>
       </c>
     </row>
     <row r="5">
@@ -25913,28 +25913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.20082413050261</v>
+        <v>121.3167554933287</v>
       </c>
       <c r="AB5" t="n">
-        <v>119.312014604156</v>
+        <v>165.9909369834192</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.9250433858307</v>
+        <v>150.1489949275108</v>
       </c>
       <c r="AD5" t="n">
-        <v>87200.82413050262</v>
+        <v>121316.7554933287</v>
       </c>
       <c r="AE5" t="n">
-        <v>119312.014604156</v>
+        <v>165990.9369834192</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105641462761132e-06</v>
+        <v>5.962085321502679e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>107925.0433858307</v>
+        <v>150148.9949275109</v>
       </c>
     </row>
     <row r="6">
@@ -26019,28 +26019,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.58879946356195</v>
+        <v>120.5341386257959</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.4746154542255</v>
+        <v>164.9201260586418</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.1675644354722</v>
+        <v>149.1803806945014</v>
       </c>
       <c r="AD6" t="n">
-        <v>86588.79946356195</v>
+        <v>120534.1386257959</v>
       </c>
       <c r="AE6" t="n">
-        <v>118474.6154542255</v>
+        <v>164920.1260586419</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.148723890221978e-06</v>
+        <v>6.024648287779397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.447916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>107167.5644354722</v>
+        <v>149180.3806945014</v>
       </c>
     </row>
     <row r="7">
@@ -26125,28 +26125,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>85.9782917469911</v>
+        <v>119.923630909225</v>
       </c>
       <c r="AB7" t="n">
-        <v>117.6392918627141</v>
+        <v>164.0848024671305</v>
       </c>
       <c r="AC7" t="n">
-        <v>106.4119629551504</v>
+        <v>148.4247792141795</v>
       </c>
       <c r="AD7" t="n">
-        <v>85978.2917469911</v>
+        <v>119923.630909225</v>
       </c>
       <c r="AE7" t="n">
-        <v>117639.2918627141</v>
+        <v>164084.8024671305</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.195388612036673e-06</v>
+        <v>6.092413350921635e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>106411.9629551504</v>
+        <v>148424.7792141795</v>
       </c>
     </row>
     <row r="8">
@@ -26231,28 +26231,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.47272471310986</v>
+        <v>119.4180638753438</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.9475527429148</v>
+        <v>163.3930633473311</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.7862424460825</v>
+        <v>147.7990587051116</v>
       </c>
       <c r="AD8" t="n">
-        <v>85472.72471310986</v>
+        <v>119418.0638753438</v>
       </c>
       <c r="AE8" t="n">
-        <v>116947.5527429148</v>
+        <v>163393.0633473311</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.233038288457579e-06</v>
+        <v>6.147087044468525e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>105786.2424460825</v>
+        <v>147799.0587051116</v>
       </c>
     </row>
     <row r="9">
@@ -26337,28 +26337,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.8362016736433</v>
+        <v>110.4232397043139</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.0766338389025</v>
+        <v>151.0859480928982</v>
       </c>
       <c r="AC9" t="n">
-        <v>104.9984428199265</v>
+        <v>136.6665172574131</v>
       </c>
       <c r="AD9" t="n">
-        <v>84836.2016736433</v>
+        <v>110423.2397043139</v>
       </c>
       <c r="AE9" t="n">
-        <v>116076.6338389025</v>
+        <v>151085.9480928982</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.276049544507423e-06</v>
+        <v>6.209546657827386e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>104998.4428199265</v>
+        <v>136666.5172574132</v>
       </c>
     </row>
     <row r="10">
@@ -26443,28 +26443,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>84.54091187272509</v>
+        <v>110.1279499033957</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.6726053060198</v>
+        <v>150.6819195600155</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.6329742031643</v>
+        <v>136.301048640651</v>
       </c>
       <c r="AD10" t="n">
-        <v>84540.91187272509</v>
+        <v>110127.9499033957</v>
       </c>
       <c r="AE10" t="n">
-        <v>115672.6053060198</v>
+        <v>150681.9195600155</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.279275981806253e-06</v>
+        <v>6.214231990103616e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.213541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>104632.9742031643</v>
+        <v>136301.048640651</v>
       </c>
     </row>
     <row r="11">
@@ -26549,28 +26549,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.61687175639666</v>
+        <v>110.2039097870673</v>
       </c>
       <c r="AB11" t="n">
-        <v>115.7765369699727</v>
+        <v>150.7858512239685</v>
       </c>
       <c r="AC11" t="n">
-        <v>104.7269867749787</v>
+        <v>136.3950612124654</v>
       </c>
       <c r="AD11" t="n">
-        <v>84616.87175639666</v>
+        <v>110203.9097870673</v>
       </c>
       <c r="AE11" t="n">
-        <v>115776.5369699727</v>
+        <v>150785.8512239685</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278208410641199e-06</v>
+        <v>6.212681696335745e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH11" t="n">
-        <v>104726.9867749787</v>
+        <v>136395.0612124654</v>
       </c>
     </row>
   </sheetData>
@@ -26846,28 +26846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.7579807478569</v>
+        <v>85.13529577432931</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.65877324457823</v>
+        <v>116.4858675825613</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.24712892090632</v>
+        <v>105.3686198694538</v>
       </c>
       <c r="AD2" t="n">
-        <v>56757.9807478569</v>
+        <v>85135.29577432931</v>
       </c>
       <c r="AE2" t="n">
-        <v>77658.77324457823</v>
+        <v>116485.8675825613</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.797816444518888e-06</v>
+        <v>9.664614584664696e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70247.12892090633</v>
+        <v>105368.6198694538</v>
       </c>
     </row>
   </sheetData>
@@ -27143,28 +27143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.97683738008622</v>
+        <v>110.7470012833493</v>
       </c>
       <c r="AB2" t="n">
-        <v>108.0595931155528</v>
+        <v>151.5289329686869</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.74653721122344</v>
+        <v>137.0672242783899</v>
       </c>
       <c r="AD2" t="n">
-        <v>78976.83738008622</v>
+        <v>110747.0012833493</v>
       </c>
       <c r="AE2" t="n">
-        <v>108059.5931155528</v>
+        <v>151528.9329686869</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.513892349973831e-06</v>
+        <v>6.869722657164741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>97746.53721122345</v>
+        <v>137067.2242783899</v>
       </c>
     </row>
     <row r="3">
@@ -27249,28 +27249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>68.40918222581729</v>
+        <v>100.0940052745088</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.60046112144754</v>
+        <v>136.953033852384</v>
       </c>
       <c r="AC3" t="n">
-        <v>84.66736448111176</v>
+        <v>123.8824285163395</v>
       </c>
       <c r="AD3" t="n">
-        <v>68409.18222581729</v>
+        <v>100094.0052745088</v>
       </c>
       <c r="AE3" t="n">
-        <v>93600.46112144754</v>
+        <v>136953.033852384</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.924911275295161e-06</v>
+        <v>7.495255081264269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>84667.36448111176</v>
+        <v>123882.4285163395</v>
       </c>
     </row>
     <row r="4">
@@ -27355,28 +27355,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.4018760849778</v>
+        <v>99.08669913366926</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.22222042034105</v>
+        <v>135.5747931512776</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.42066113814548</v>
+        <v>122.6357251733732</v>
       </c>
       <c r="AD4" t="n">
-        <v>67401.8760849778</v>
+        <v>99086.69913366926</v>
       </c>
       <c r="AE4" t="n">
-        <v>92222.22042034105</v>
+        <v>135574.7931512776</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.047529787566027e-06</v>
+        <v>7.681869007034982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.744791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>83420.66113814547</v>
+        <v>122635.7251733732</v>
       </c>
     </row>
     <row r="5">
@@ -27461,28 +27461,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.16796293126893</v>
+        <v>98.85278597996039</v>
       </c>
       <c r="AB5" t="n">
-        <v>91.90217012391673</v>
+        <v>135.2547428548532</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.13115599281835</v>
+        <v>122.346220028046</v>
       </c>
       <c r="AD5" t="n">
-        <v>67167.96293126894</v>
+        <v>98852.78597996039</v>
       </c>
       <c r="AE5" t="n">
-        <v>91902.17012391673</v>
+        <v>135254.7428548532</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.080503272007927e-06</v>
+        <v>7.732051571348351e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.692708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>83131.15599281836</v>
+        <v>122346.2200280461</v>
       </c>
     </row>
   </sheetData>
@@ -27758,28 +27758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.05313337019291</v>
+        <v>125.6327666362966</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.3194022915581</v>
+        <v>171.8962938381982</v>
       </c>
       <c r="AC2" t="n">
-        <v>115.1682172307888</v>
+        <v>155.490752812292</v>
       </c>
       <c r="AD2" t="n">
-        <v>93053.13337019291</v>
+        <v>125632.7666362966</v>
       </c>
       <c r="AE2" t="n">
-        <v>127319.4022915581</v>
+        <v>171896.2938381982</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.00905184091324e-06</v>
+        <v>5.985156366185365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>115168.2172307888</v>
+        <v>155490.752812292</v>
       </c>
     </row>
     <row r="3">
@@ -27864,28 +27864,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.36315955039494</v>
+        <v>113.857451961927</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.3246643860717</v>
+        <v>155.7847888105141</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.6999946622413</v>
+        <v>140.9169072118057</v>
       </c>
       <c r="AD3" t="n">
-        <v>81363.15955039494</v>
+        <v>113857.451961927</v>
       </c>
       <c r="AE3" t="n">
-        <v>111324.6643860717</v>
+        <v>155784.7888105141</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.463286948470311e-06</v>
+        <v>6.663288815857256e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>100699.9946622413</v>
+        <v>140916.9072118057</v>
       </c>
     </row>
     <row r="4">
@@ -27970,28 +27970,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.91451008711203</v>
+        <v>104.4132630547563</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.3425582805052</v>
+        <v>142.8628328995206</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.90705798148608</v>
+        <v>129.2282046368742</v>
       </c>
       <c r="AD4" t="n">
-        <v>79914.51008711204</v>
+        <v>104413.2630547563</v>
       </c>
       <c r="AE4" t="n">
-        <v>109342.5582805052</v>
+        <v>142862.8328995206</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.656532454160814e-06</v>
+        <v>6.951787097874172e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH4" t="n">
-        <v>98907.05798148608</v>
+        <v>129228.2046368742</v>
       </c>
     </row>
     <row r="5">
@@ -28076,28 +28076,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.8564343082114</v>
+        <v>103.4359780657641</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.94889938571959</v>
+        <v>141.5256684628113</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.69623249700534</v>
+        <v>128.0186572972819</v>
       </c>
       <c r="AD5" t="n">
-        <v>70856.43430821141</v>
+        <v>103435.9780657641</v>
       </c>
       <c r="AE5" t="n">
-        <v>96948.89938571959</v>
+        <v>141525.6684628113</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.732452128226674e-06</v>
+        <v>7.06512839117371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>87696.23249700535</v>
+        <v>128018.6572972819</v>
       </c>
     </row>
     <row r="6">
@@ -28182,28 +28182,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.29125078351193</v>
+        <v>102.8707945410646</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.17559035308879</v>
+        <v>140.7523594301805</v>
       </c>
       <c r="AC6" t="n">
-        <v>86.99672699310256</v>
+        <v>127.3191517933791</v>
       </c>
       <c r="AD6" t="n">
-        <v>70291.25078351193</v>
+        <v>102870.7945410646</v>
       </c>
       <c r="AE6" t="n">
-        <v>96175.59035308879</v>
+        <v>140752.3594301805</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.779417678750519e-06</v>
+        <v>7.135243763801359e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>86996.72699310255</v>
+        <v>127319.1517933791</v>
       </c>
     </row>
     <row r="7">
@@ -28288,28 +28288,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>70.40282812897284</v>
+        <v>102.9823718865255</v>
       </c>
       <c r="AB7" t="n">
-        <v>96.32825539959342</v>
+        <v>140.9050244766851</v>
       </c>
       <c r="AC7" t="n">
-        <v>87.13482190183556</v>
+        <v>127.4572467021121</v>
       </c>
       <c r="AD7" t="n">
-        <v>70402.82812897285</v>
+        <v>102982.3718865255</v>
       </c>
       <c r="AE7" t="n">
-        <v>96328.25539959341</v>
+        <v>140905.0244766851</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.776373848213087e-06</v>
+        <v>7.130699596641238e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.861979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>87134.82190183556</v>
+        <v>127457.2467021121</v>
       </c>
     </row>
   </sheetData>
